--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1258847.657970015</v>
+        <v>-1259559.959793059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159989</v>
+        <v>167214.719915999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,49 +1221,49 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.817899082923868</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.817899082923868</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.23942861455535</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>121.7113624208415</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D12" t="n">
-        <v>67.57504489582934</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8.230418637766061</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161041</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890777</v>
@@ -1500,22 +1500,22 @@
         <v>188.4979333192472</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242248</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095782</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256632</v>
+        <v>25.28169700256626</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6602492622124</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>188.4979333192472</v>
       </c>
       <c r="G14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538038</v>
+        <v>30.87261612743948</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1689,16 @@
         <v>9.36988737129812</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.2363228653356</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161041</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>59.07980534382081</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233444</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W15" t="n">
-        <v>188.4979333192472</v>
+        <v>161.2122669902878</v>
       </c>
       <c r="X15" t="n">
         <v>39.1646502864028</v>
@@ -1844,7 +1844,7 @@
         <v>76.63956945084885</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419454</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D17" t="n">
         <v>40.32448871524281</v>
@@ -1856,10 +1856,10 @@
         <v>105.751578713029</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H17" t="n">
-        <v>49.5737276815661</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6.856664591014361</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>150.7535962997472</v>
+      </c>
+      <c r="X18" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>105.751578713029</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
         <v>49.57372768156608</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>71.0625077231356</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>188.4979333192472</v>
       </c>
       <c r="U21" t="n">
-        <v>159.1595237934318</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2415,10 +2415,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,25 +2439,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>17.49277889723505</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.4979333192472</v>
+        <v>91.75784599833361</v>
       </c>
       <c r="U24" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2567,13 +2567,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H26" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147511</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444725</v>
       </c>
       <c r="T26" t="n">
-        <v>8.98113087581828</v>
+        <v>8.981130875818337</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9709236054903</v>
+        <v>1.486173081489348</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288762</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V27" t="n">
-        <v>114.8626984813042</v>
+        <v>230.4853561449077</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2198330530106</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469617</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024628</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147507</v>
+        <v>27.52501869147506</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68.60138496442879</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>1.486173081489291</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>142.9814062242403</v>
       </c>
       <c r="W30" t="n">
         <v>53.2198330530106</v>
@@ -3047,7 +3047,7 @@
         <v>132.7089382176854</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461087</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.4584666283887</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9709236054903</v>
+        <v>0.65846321462508</v>
       </c>
       <c r="U33" t="n">
         <v>22.91560910602341</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453705</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614639</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605405</v>
+        <v>209.6324792695689</v>
       </c>
       <c r="Y33" t="n">
         <v>9.071825743160417</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>82.6093575302684</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>109.3981753158412</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.219165992934827</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>142.2266446502446</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3740,10 +3740,10 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C41" t="n">
-        <v>109.1957281657028</v>
+        <v>109.1957281657027</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675121</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
@@ -3752,7 +3752,7 @@
         <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8284037471725</v>
+        <v>177.8284037471724</v>
       </c>
       <c r="H41" t="n">
         <v>106.0116293930745</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.14077227717371</v>
+        <v>9.140772277173681</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367597</v>
+        <v>79.87001439367594</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029082</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
@@ -3825,22 +3825,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>107.9129072373978</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>149.4893015847376</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>25.69481436153552</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308953</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973833</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385925</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>133.0774711623573</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1957281657028</v>
+        <v>109.1957281657027</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675121</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
@@ -3989,7 +3989,7 @@
         <v>162.1894804245374</v>
       </c>
       <c r="G44" t="n">
-        <v>177.8284037471725</v>
+        <v>177.8284037471724</v>
       </c>
       <c r="H44" t="n">
         <v>106.0116293930745</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173681</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.87001439367594</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029082</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>50.12814902610978</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>36.78417654542643</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153552</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308953</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973833</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385925</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4808,37 +4808,37 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
         <v>6.719070557086891</v>
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="D9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="E9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="F9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.42319711481442</v>
       </c>
-      <c r="L9" t="n">
-        <v>6.590454258427762</v>
-      </c>
       <c r="M9" t="n">
-        <v>6.590454258427762</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N9" t="n">
         <v>6.590454258427762</v>
@@ -4908,25 +4908,25 @@
         <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>540.5132306620222</v>
+        <v>395.8837403609886</v>
       </c>
       <c r="C11" t="n">
-        <v>366.7180455831222</v>
+        <v>395.8837403609886</v>
       </c>
       <c r="D11" t="n">
+        <v>395.8837403609886</v>
+      </c>
+      <c r="E11" t="n">
         <v>205.4817875132642</v>
-      </c>
-      <c r="E11" t="n">
-        <v>15.07983466553977</v>
       </c>
       <c r="F11" t="n">
         <v>15.07983466553977</v>
@@ -5042,49 +5042,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021288</v>
+        <v>285.139674688828</v>
       </c>
       <c r="L11" t="n">
-        <v>302.0457673881834</v>
+        <v>471.7526286748827</v>
       </c>
       <c r="M11" t="n">
-        <v>382.9076664751307</v>
+        <v>552.6145277618299</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558724</v>
+        <v>632.2189367398314</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485401</v>
+        <v>666.4395714324992</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324993</v>
+        <v>666.4395714324992</v>
       </c>
       <c r="Q11" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049694</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="S11" t="n">
-        <v>687.2220245550902</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="T11" t="n">
-        <v>687.2220245550902</v>
+        <v>709.226463330775</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4924514848054</v>
+        <v>709.226463330775</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4924514848054</v>
+        <v>709.226463330775</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4924514848054</v>
+        <v>709.226463330775</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4924514848054</v>
+        <v>586.2856932087129</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4924514848054</v>
+        <v>395.8837403609886</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.80198847071904</v>
+        <v>85.86314415338495</v>
       </c>
       <c r="C12" t="n">
-        <v>83.3374557724381</v>
+        <v>76.39861145510407</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553977</v>
+        <v>76.39861145510407</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142009</v>
+        <v>53.04316068142014</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
         <v>538.6656803998544</v>
@@ -5139,31 +5139,31 @@
         <v>753.9917332769886</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R12" t="n">
-        <v>617.9111264193344</v>
+        <v>610.972282102</v>
       </c>
       <c r="S12" t="n">
-        <v>427.5091735716101</v>
+        <v>420.5703292542756</v>
       </c>
       <c r="T12" t="n">
-        <v>390.3145680641126</v>
+        <v>383.3757237467782</v>
       </c>
       <c r="U12" t="n">
-        <v>330.6379970097482</v>
+        <v>323.6991526924139</v>
       </c>
       <c r="V12" t="n">
-        <v>267.5060204821376</v>
+        <v>260.5671761648034</v>
       </c>
       <c r="W12" t="n">
-        <v>178.0551927811843</v>
+        <v>171.1163484638501</v>
       </c>
       <c r="X12" t="n">
-        <v>138.494939966636</v>
+        <v>131.5560956493019</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.80198847071904</v>
+        <v>85.86314415338495</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.60586471875854</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482427</v>
+        <v>27.18003706804309</v>
       </c>
       <c r="D13" t="n">
-        <v>26.65400701482427</v>
+        <v>59.81599483137667</v>
       </c>
       <c r="E13" t="n">
-        <v>26.65400701482427</v>
+        <v>95.9233965428111</v>
       </c>
       <c r="F13" t="n">
-        <v>26.65400701482427</v>
+        <v>134.7525646580861</v>
       </c>
       <c r="G13" t="n">
-        <v>36.00702134848044</v>
+        <v>144.1055789917423</v>
       </c>
       <c r="H13" t="n">
-        <v>48.20764918189765</v>
+        <v>156.3062068251596</v>
       </c>
       <c r="I13" t="n">
-        <v>48.20764918189765</v>
+        <v>169.4685499494114</v>
       </c>
       <c r="J13" t="n">
-        <v>48.20764918189765</v>
+        <v>226.7981199538687</v>
       </c>
       <c r="K13" t="n">
-        <v>158.2147503556367</v>
+        <v>226.7981199538687</v>
       </c>
       <c r="L13" t="n">
-        <v>302.7512337814767</v>
+        <v>226.7981199538687</v>
       </c>
       <c r="M13" t="n">
-        <v>454.1533185481093</v>
+        <v>226.7981199538687</v>
       </c>
       <c r="N13" t="n">
-        <v>520.7166611426682</v>
+        <v>386.8099456698174</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604133</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117132</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>513.7223759793849</v>
+        <v>442.7734423521725</v>
       </c>
       <c r="C14" t="n">
-        <v>395.8837403609886</v>
+        <v>268.9782572732725</v>
       </c>
       <c r="D14" t="n">
-        <v>395.8837403609886</v>
+        <v>268.9782572732725</v>
       </c>
       <c r="E14" t="n">
-        <v>395.8837403609886</v>
+        <v>268.9782572732725</v>
       </c>
       <c r="F14" t="n">
-        <v>205.4817875132642</v>
+        <v>78.57630442554812</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554812</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554812</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553977</v>
+        <v>54.86917179554047</v>
       </c>
       <c r="K14" t="n">
-        <v>15.07983466553977</v>
+        <v>224.5760330822396</v>
       </c>
       <c r="L14" t="n">
-        <v>201.6927886515945</v>
+        <v>411.1889870682943</v>
       </c>
       <c r="M14" t="n">
-        <v>282.5546877385417</v>
+        <v>492.0508861552416</v>
       </c>
       <c r="N14" t="n">
-        <v>405.9530504069747</v>
+        <v>567.3787792909339</v>
       </c>
       <c r="O14" t="n">
-        <v>592.5660043930294</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="P14" t="n">
         <v>753.9917332769886</v>
@@ -5300,28 +5300,28 @@
         <v>753.9917332769886</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769886</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="S14" t="n">
-        <v>704.1243288271093</v>
+        <v>705.9049682701821</v>
       </c>
       <c r="T14" t="n">
-        <v>704.1243288271093</v>
+        <v>705.9049682701821</v>
       </c>
       <c r="U14" t="n">
-        <v>704.1243288271093</v>
+        <v>633.1753951998969</v>
       </c>
       <c r="V14" t="n">
-        <v>704.1243288271093</v>
+        <v>633.1753951998969</v>
       </c>
       <c r="W14" t="n">
-        <v>704.1243288271093</v>
+        <v>633.1753951998969</v>
       </c>
       <c r="X14" t="n">
-        <v>704.1243288271093</v>
+        <v>633.1753951998969</v>
       </c>
       <c r="Y14" t="n">
-        <v>513.7223759793849</v>
+        <v>633.1753951998969</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304.7551127596936</v>
+        <v>198.1075712424062</v>
       </c>
       <c r="C15" t="n">
-        <v>295.2905800614127</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D15" t="n">
-        <v>134.5104638224444</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E15" t="n">
-        <v>134.5104638224444</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>134.5104638224444</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
         <v>15.07983466553977</v>
@@ -5358,7 +5358,7 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142009</v>
+        <v>53.04316068142014</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097942</v>
@@ -5367,40 +5367,40 @@
         <v>352.0527264137996</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P15" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073557</v>
+        <v>733.4745786900213</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998582</v>
+        <v>696.2799731825238</v>
       </c>
       <c r="U15" t="n">
-        <v>643.5422464454938</v>
+        <v>636.6034021281594</v>
       </c>
       <c r="V15" t="n">
-        <v>580.4102699178833</v>
+        <v>446.201449280435</v>
       </c>
       <c r="W15" t="n">
-        <v>390.0083170701589</v>
+        <v>283.3607755528715</v>
       </c>
       <c r="X15" t="n">
-        <v>350.4480642556106</v>
+        <v>243.8005227383232</v>
       </c>
       <c r="Y15" t="n">
-        <v>304.7551127596936</v>
+        <v>198.1075712424062</v>
       </c>
     </row>
     <row r="16">
@@ -5416,43 +5416,43 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>47.71579242887329</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E16" t="n">
-        <v>47.71579242887329</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F16" t="n">
-        <v>47.71579242887329</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G16" t="n">
-        <v>47.71579242887329</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9164202622905</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I16" t="n">
-        <v>73.07876338654222</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J16" t="n">
-        <v>130.4083333909995</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K16" t="n">
-        <v>130.4083333909995</v>
+        <v>125.0869358392788</v>
       </c>
       <c r="L16" t="n">
-        <v>274.9448168168395</v>
+        <v>269.6234192651189</v>
       </c>
       <c r="M16" t="n">
-        <v>274.9448168168395</v>
+        <v>421.0255040317514</v>
       </c>
       <c r="N16" t="n">
-        <v>434.956642532788</v>
+        <v>421.0255040317514</v>
       </c>
       <c r="O16" t="n">
-        <v>434.956642532788</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351834</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426682</v>
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C17" t="n">
         <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718623</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F17" t="n">
         <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116211</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="J17" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="K17" t="n">
-        <v>15.07983466553977</v>
+        <v>225.0325002150139</v>
       </c>
       <c r="L17" t="n">
-        <v>61.80067714629985</v>
+        <v>271.753342695774</v>
       </c>
       <c r="M17" t="n">
-        <v>248.4136311323545</v>
+        <v>352.6152417827213</v>
       </c>
       <c r="N17" t="n">
-        <v>323.7415242680469</v>
+        <v>427.9431349184136</v>
       </c>
       <c r="O17" t="n">
-        <v>357.9621589607146</v>
+        <v>462.1637696110814</v>
       </c>
       <c r="P17" t="n">
-        <v>446.322649519049</v>
+        <v>462.1637696110814</v>
       </c>
       <c r="Q17" t="n">
-        <v>632.9356035051037</v>
+        <v>462.1637696110814</v>
       </c>
       <c r="R17" t="n">
-        <v>632.9356035051037</v>
+        <v>563.7042339002528</v>
       </c>
       <c r="S17" t="n">
         <v>632.9356035051037</v>
@@ -5549,7 +5549,7 @@
         <v>753.9917332769886</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
         <v>689.4655660235037</v>
@@ -5558,7 +5558,7 @@
         <v>626.5008757530777</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.7858747338155</v>
+        <v>411.3134205305297</v>
       </c>
       <c r="C18" t="n">
-        <v>175.859950904508</v>
+        <v>411.3134205305297</v>
       </c>
       <c r="D18" t="n">
-        <v>15.07983466553977</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="E18" t="n">
-        <v>15.07983466553977</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="F18" t="n">
-        <v>15.07983466553977</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553977</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553977</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="I18" t="n">
         <v>15.07983466553977</v>
@@ -5595,22 +5595,22 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142029</v>
+        <v>53.04316068142014</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q18" t="n">
         <v>753.9917332769886</v>
@@ -5622,22 +5622,22 @@
         <v>753.9917332769886</v>
       </c>
       <c r="T18" t="n">
-        <v>563.5897804292642</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U18" t="n">
-        <v>563.5897804292642</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="V18" t="n">
-        <v>563.5897804292642</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="W18" t="n">
-        <v>373.1878275815399</v>
+        <v>601.7153733782541</v>
       </c>
       <c r="X18" t="n">
-        <v>373.1878275815399</v>
+        <v>411.3134205305297</v>
       </c>
       <c r="Y18" t="n">
-        <v>182.7858747338155</v>
+        <v>411.3134205305297</v>
       </c>
     </row>
     <row r="19">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C20" t="n">
         <v>410.1015905040791</v>
@@ -5735,10 +5735,10 @@
         <v>369.3697837210055</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718626</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940559</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116208</v>
@@ -5747,55 +5747,55 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="J20" t="n">
-        <v>201.6927886515945</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="K20" t="n">
-        <v>201.6927886515945</v>
+        <v>70.95335735993311</v>
       </c>
       <c r="L20" t="n">
-        <v>248.4136311323546</v>
+        <v>186.6808529988908</v>
       </c>
       <c r="M20" t="n">
-        <v>329.2755302193018</v>
+        <v>267.5427520858381</v>
       </c>
       <c r="N20" t="n">
-        <v>404.6034233549941</v>
+        <v>342.8706452215304</v>
       </c>
       <c r="O20" t="n">
-        <v>591.2163773410488</v>
+        <v>377.0912799141981</v>
       </c>
       <c r="P20" t="n">
-        <v>591.2163773410488</v>
+        <v>563.7042339002528</v>
       </c>
       <c r="Q20" t="n">
-        <v>753.9917332769886</v>
+        <v>563.7042339002528</v>
       </c>
       <c r="R20" t="n">
-        <v>753.9917332769886</v>
+        <v>563.7042339002528</v>
       </c>
       <c r="S20" t="n">
-        <v>753.9917332769886</v>
+        <v>632.9356035051037</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9917332769886</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="U20" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
         <v>689.4655660235037</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.07983466553977</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="C21" t="n">
-        <v>15.07983466553977</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="D21" t="n">
-        <v>15.07983466553977</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="E21" t="n">
-        <v>15.07983466553977</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="F21" t="n">
-        <v>15.07983466553977</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553977</v>
+        <v>86.86014549698987</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553977</v>
+        <v>86.86014549698987</v>
       </c>
       <c r="I21" t="n">
         <v>15.07983466553977</v>
@@ -5832,16 +5832,16 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M21" t="n">
         <v>352.0527264137997</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O21" t="n">
         <v>670.3666200188887</v>
@@ -5850,31 +5850,31 @@
         <v>753.9917332769886</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596542</v>
+        <v>617.9111264193344</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596542</v>
+        <v>617.9111264193344</v>
       </c>
       <c r="T21" t="n">
-        <v>556.6509361119298</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="U21" t="n">
-        <v>395.8837403609886</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="V21" t="n">
-        <v>395.8837403609886</v>
+        <v>427.5091735716101</v>
       </c>
       <c r="W21" t="n">
-        <v>205.4817875132642</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="X21" t="n">
-        <v>205.4817875132642</v>
+        <v>237.1072207238857</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.07983466553977</v>
+        <v>237.1072207238857</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961949</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040794</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210058</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553978</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="K23" t="n">
-        <v>201.6927886515945</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="L23" t="n">
-        <v>248.4136311323546</v>
+        <v>373.2938069849453</v>
       </c>
       <c r="M23" t="n">
-        <v>435.0265851184093</v>
+        <v>454.1557060718926</v>
       </c>
       <c r="N23" t="n">
-        <v>567.3787792909341</v>
+        <v>529.4835992075849</v>
       </c>
       <c r="O23" t="n">
-        <v>753.9917332769888</v>
+        <v>563.7042339002527</v>
       </c>
       <c r="P23" t="n">
-        <v>753.9917332769888</v>
+        <v>563.7042339002527</v>
       </c>
       <c r="Q23" t="n">
-        <v>753.9917332769888</v>
+        <v>563.7042339002527</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769888</v>
+        <v>563.7042339002527</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769888</v>
+        <v>632.9356035051036</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769888</v>
+        <v>707.1675751369971</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879305</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W23" t="n">
-        <v>689.465566023504</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530782</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122039</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>355.5183539479692</v>
+        <v>463.96624318432</v>
       </c>
       <c r="C24" t="n">
-        <v>355.5183539479692</v>
+        <v>463.96624318432</v>
       </c>
       <c r="D24" t="n">
-        <v>355.5183539479692</v>
+        <v>463.96624318432</v>
       </c>
       <c r="E24" t="n">
-        <v>355.5183539479692</v>
+        <v>463.96624318432</v>
       </c>
       <c r="F24" t="n">
-        <v>195.0906376652133</v>
+        <v>303.5385269015641</v>
       </c>
       <c r="G24" t="n">
-        <v>195.0906376652133</v>
+        <v>303.5385269015641</v>
       </c>
       <c r="H24" t="n">
-        <v>68.08505727554243</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="I24" t="n">
-        <v>68.08505727554243</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
         <v>53.04316068142013</v>
@@ -6087,31 +6087,31 @@
         <v>753.9917332769885</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769888</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769888</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="S24" t="n">
-        <v>736.3222596434181</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="T24" t="n">
-        <v>545.9203067956936</v>
+        <v>654.3681960320444</v>
       </c>
       <c r="U24" t="n">
-        <v>355.5183539479692</v>
+        <v>654.3681960320444</v>
       </c>
       <c r="V24" t="n">
-        <v>355.5183539479692</v>
+        <v>654.3681960320444</v>
       </c>
       <c r="W24" t="n">
-        <v>355.5183539479692</v>
+        <v>463.96624318432</v>
       </c>
       <c r="X24" t="n">
-        <v>355.5183539479692</v>
+        <v>463.96624318432</v>
       </c>
       <c r="Y24" t="n">
-        <v>355.5183539479692</v>
+        <v>463.96624318432</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874108</v>
+        <v>882.7966579874105</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942527</v>
+        <v>757.2538204942525</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350254</v>
+        <v>597.663758335025</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471335</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
         <v>1654.882514315173</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>225.3289736821783</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C27" t="n">
         <v>35.91669941514207</v>
@@ -6315,40 +6315,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339607</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R27" t="n">
-        <v>650.1011692763066</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="S27" t="n">
-        <v>650.1011692763066</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="T27" t="n">
-        <v>432.9588222000538</v>
+        <v>791.619435520498</v>
       </c>
       <c r="U27" t="n">
-        <v>408.9756717223895</v>
+        <v>551.9951228973781</v>
       </c>
       <c r="V27" t="n">
-        <v>292.9527439634963</v>
+        <v>319.1816318419158</v>
       </c>
       <c r="W27" t="n">
-        <v>239.1953368392432</v>
+        <v>49.78306257220708</v>
       </c>
       <c r="X27" t="n">
-        <v>235.3285046013951</v>
+        <v>45.91623033435892</v>
       </c>
       <c r="Y27" t="n">
-        <v>225.3289736821783</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="28">
@@ -6361,70 +6361,70 @@
         <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514207</v>
+        <v>150.0930725422077</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514207</v>
+        <v>218.9787648353686</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514207</v>
+        <v>218.9787648353686</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514207</v>
+        <v>218.9787648353686</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514207</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="M28" t="n">
-        <v>222.3019056889985</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="N28" t="n">
-        <v>222.3019056889985</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U28" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389705</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514207</v>
@@ -6440,37 +6440,37 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874109</v>
+        <v>882.7966579874111</v>
       </c>
       <c r="D29" t="n">
-        <v>757.253820494253</v>
+        <v>757.2538204942532</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350255</v>
+        <v>597.6637583350257</v>
       </c>
       <c r="F29" t="n">
-        <v>406.032951147134</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141567</v>
+        <v>198.605251714157</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845004</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589552</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528782</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581076</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6488,13 +6488,13 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
@@ -6503,7 +6503,7 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715704</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.91669941514208</v>
+        <v>555.5868519087476</v>
       </c>
       <c r="C30" t="n">
-        <v>35.91669941514208</v>
+        <v>366.1745776417113</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91669941514208</v>
+        <v>366.1745776417113</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514208</v>
+        <v>366.1745776417113</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514208</v>
+        <v>366.1745776417113</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514208</v>
+        <v>215.9275024148155</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>88.92192202514471</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514208</v>
+        <v>88.92192202514471</v>
       </c>
       <c r="J30" t="n">
         <v>35.91669941514208</v>
@@ -6552,40 +6552,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R30" t="n">
-        <v>657.040013593641</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="S30" t="n">
-        <v>657.040013593641</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="T30" t="n">
-        <v>655.5388286628437</v>
+        <v>791.619435520498</v>
       </c>
       <c r="U30" t="n">
-        <v>415.9145160397238</v>
+        <v>767.6362850428337</v>
       </c>
       <c r="V30" t="n">
-        <v>172.8347979433579</v>
+        <v>623.2106221900657</v>
       </c>
       <c r="W30" t="n">
-        <v>119.0773908191047</v>
+        <v>569.4532150658125</v>
       </c>
       <c r="X30" t="n">
-        <v>115.2105585812566</v>
+        <v>565.5863828279644</v>
       </c>
       <c r="Y30" t="n">
-        <v>105.2110276620399</v>
+        <v>555.5868519087476</v>
       </c>
     </row>
     <row r="31">
@@ -6610,28 +6610,28 @@
         <v>35.91669941514208</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514208</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514208</v>
+        <v>80.25283525602211</v>
       </c>
       <c r="I31" t="n">
-        <v>84.06216404661765</v>
+        <v>128.3982998874977</v>
       </c>
       <c r="J31" t="n">
-        <v>84.06216404661765</v>
+        <v>128.3982998874977</v>
       </c>
       <c r="K31" t="n">
-        <v>84.06216404661765</v>
+        <v>128.3982998874977</v>
       </c>
       <c r="L31" t="n">
-        <v>263.5817689796816</v>
+        <v>128.3982998874977</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1625141760092</v>
+        <v>128.3982998874977</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760092</v>
+        <v>128.3982998874977</v>
       </c>
       <c r="O31" t="n">
         <v>266.1625141760092</v>
@@ -6677,46 +6677,46 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806687</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601008</v>
+        <v>752.8175276601003</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734635</v>
+        <v>594.063536073463</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581622</v>
+        <v>403.2687994581617</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977755</v>
+        <v>196.6771705977749</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465905</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>151.9003389533368</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>357.4097545154554</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>616.299932783172</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596883</v>
+        <v>909.3311676570759</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561961</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.36260372134</v>
+        <v>1640.446650218728</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6728,22 +6728,22 @@
         <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099538</v>
+        <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>282.321356629964</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>282.321356629964</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
-        <v>282.321356629964</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E33" t="n">
-        <v>282.321356629964</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
-        <v>282.321356629964</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>162.6663398336118</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
         <v>35.660759443941</v>
@@ -6780,7 +6780,7 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982134</v>
+        <v>73.62408545982136</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881954</v>
@@ -6789,40 +6789,40 @@
         <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029599</v>
+        <v>577.53862760296</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219942</v>
+        <v>709.2395672219943</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="T33" t="n">
-        <v>575.7223334038413</v>
+        <v>792.1995661218871</v>
       </c>
       <c r="U33" t="n">
-        <v>552.5752534987671</v>
+        <v>769.0524862168129</v>
       </c>
       <c r="V33" t="n">
-        <v>525.9727681204469</v>
+        <v>525.972768120447</v>
       </c>
       <c r="W33" t="n">
-        <v>473.0514315687838</v>
+        <v>256.5741988507383</v>
       </c>
       <c r="X33" t="n">
-        <v>470.0206699035258</v>
+        <v>44.82421979056768</v>
       </c>
       <c r="Y33" t="n">
-        <v>460.8572095568991</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6835,46 +6835,46 @@
         <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>35.660759443941</v>
+        <v>83.03748606864491</v>
       </c>
       <c r="D34" t="n">
-        <v>104.099271482694</v>
+        <v>151.4759981073979</v>
       </c>
       <c r="E34" t="n">
-        <v>176.0092274695477</v>
+        <v>214.8985115876018</v>
       </c>
       <c r="F34" t="n">
-        <v>176.0092274695477</v>
+        <v>214.8985115876018</v>
       </c>
       <c r="G34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="H34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="I34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="J34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="K34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="L34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="M34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="N34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="O34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="P34" t="n">
-        <v>176.0092274695477</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="Q34" t="n">
         <v>260.0540801966774</v>
@@ -6932,40 +6932,40 @@
         <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>20.8368647496023</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1616385483602</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1616385483602</v>
+        <v>309.4319710763155</v>
       </c>
       <c r="L35" t="n">
-        <v>260.8824810291203</v>
+        <v>356.1528135570756</v>
       </c>
       <c r="M35" t="n">
-        <v>377.8557724768032</v>
+        <v>437.0147126440228</v>
       </c>
       <c r="N35" t="n">
-        <v>453.1836656124955</v>
+        <v>512.3426057797152</v>
       </c>
       <c r="O35" t="n">
-        <v>711.039866888824</v>
+        <v>770.1988070560437</v>
       </c>
       <c r="P35" t="n">
-        <v>965.4373908349521</v>
+        <v>770.1988070560437</v>
       </c>
       <c r="Q35" t="n">
-        <v>965.4373908349521</v>
+        <v>926.959591035405</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.843237480115</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.843237480115</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>531.4569715383627</v>
+        <v>104.2806602347219</v>
       </c>
       <c r="C36" t="n">
-        <v>342.0446972713265</v>
+        <v>104.2806602347219</v>
       </c>
       <c r="D36" t="n">
-        <v>181.2645810323582</v>
+        <v>104.2806602347219</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2645810323582</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F36" t="n">
         <v>20.8368647496023</v>
@@ -7017,49 +7017,49 @@
         <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548265</v>
+        <v>58.80019076548267</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938567</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978621</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086213</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276556</v>
+        <v>694.4156725276557</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="R36" t="n">
-        <v>641.9601789281013</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="S36" t="n">
-        <v>641.9601789281013</v>
+        <v>584.5147339473674</v>
       </c>
       <c r="T36" t="n">
-        <v>641.9601789281013</v>
+        <v>367.3723868711146</v>
       </c>
       <c r="U36" t="n">
-        <v>641.9601789281013</v>
+        <v>367.3723868711146</v>
       </c>
       <c r="V36" t="n">
-        <v>531.4569715383627</v>
+        <v>367.3723868711146</v>
       </c>
       <c r="W36" t="n">
-        <v>531.4569715383627</v>
+        <v>104.2806602347219</v>
       </c>
       <c r="X36" t="n">
-        <v>531.4569715383627</v>
+        <v>104.2806602347219</v>
       </c>
       <c r="Y36" t="n">
-        <v>531.4569715383627</v>
+        <v>104.2806602347219</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="J37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>20.8368647496023</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
         <v>56.03780166411087</v>
@@ -7154,10 +7154,10 @@
         <v>544.0833815513525</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756368</v>
+        <v>477.7066225756367</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338515</v>
+        <v>377.2826389338514</v>
       </c>
       <c r="F38" t="n">
         <v>244.8179102634022</v>
@@ -7175,34 +7175,34 @@
         <v>51.57576979998704</v>
       </c>
       <c r="K38" t="n">
-        <v>157.0789249603687</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="L38" t="n">
-        <v>203.7997674411288</v>
+        <v>98.29661228074714</v>
       </c>
       <c r="M38" t="n">
-        <v>284.661666528076</v>
+        <v>179.1585113676944</v>
       </c>
       <c r="N38" t="n">
-        <v>359.9895596637684</v>
+        <v>254.4864045033867</v>
       </c>
       <c r="O38" t="n">
-        <v>617.8457609400969</v>
+        <v>512.3426057797152</v>
       </c>
       <c r="P38" t="n">
-        <v>872.243284886225</v>
+        <v>766.7401297258434</v>
       </c>
       <c r="Q38" t="n">
-        <v>872.243284886225</v>
+        <v>926.959591035405</v>
       </c>
       <c r="R38" t="n">
-        <v>948.6491315313878</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7458834922301</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>290.0648702249214</v>
+        <v>446.0924282903152</v>
       </c>
       <c r="C39" t="n">
-        <v>290.0648702249214</v>
+        <v>446.0924282903152</v>
       </c>
       <c r="D39" t="n">
-        <v>129.2847539859532</v>
+        <v>446.0924282903152</v>
       </c>
       <c r="E39" t="n">
-        <v>129.2847539859532</v>
+        <v>446.0924282903152</v>
       </c>
       <c r="F39" t="n">
-        <v>129.2847539859532</v>
+        <v>446.0924282903152</v>
       </c>
       <c r="G39" t="n">
-        <v>129.2847539859532</v>
+        <v>446.0924282903152</v>
       </c>
       <c r="H39" t="n">
-        <v>129.2847539859532</v>
+        <v>446.0924282903152</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8368647496023</v>
+        <v>337.6445390539643</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>284.6393164439617</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548265</v>
+        <v>322.602642459842</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938567</v>
+        <v>439.9355615882161</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978621</v>
+        <v>621.6122081922215</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086213</v>
+        <v>826.5171846029807</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276556</v>
+        <v>958.2181242220151</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857555</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="Q39" t="n">
-        <v>772.7689009444072</v>
+        <v>1034.904393162781</v>
       </c>
       <c r="R39" t="n">
-        <v>772.7689009444072</v>
+        <v>1034.904393162781</v>
       </c>
       <c r="S39" t="n">
-        <v>772.7689009444072</v>
+        <v>1034.904393162781</v>
       </c>
       <c r="T39" t="n">
-        <v>772.7689009444072</v>
+        <v>1034.904393162781</v>
       </c>
       <c r="U39" t="n">
-        <v>533.1445883212873</v>
+        <v>1034.904393162781</v>
       </c>
       <c r="V39" t="n">
-        <v>290.0648702249214</v>
+        <v>1034.904393162781</v>
       </c>
       <c r="W39" t="n">
-        <v>290.0648702249214</v>
+        <v>891.2411157382912</v>
       </c>
       <c r="X39" t="n">
-        <v>290.0648702249214</v>
+        <v>671.7331213549876</v>
       </c>
       <c r="Y39" t="n">
-        <v>290.0648702249214</v>
+        <v>446.0924282903152</v>
       </c>
     </row>
     <row r="40">
@@ -7348,13 +7348,13 @@
         <v>20.8368647496023</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="S40" t="n">
         <v>56.03780166411087</v>
@@ -7388,19 +7388,19 @@
         <v>818.4263542753167</v>
       </c>
       <c r="C41" t="n">
-        <v>708.127638956425</v>
+        <v>708.1276389564249</v>
       </c>
       <c r="D41" t="n">
         <v>610.3878506465753</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706561</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660726</v>
+        <v>314.773079666073</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1484294164039</v>
+        <v>135.1484294164038</v>
       </c>
       <c r="H41" t="n">
         <v>28.06597548400537</v>
@@ -7409,34 +7409,34 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06597548400537</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>260.0057267824886</v>
+        <v>283.8081951575834</v>
       </c>
       <c r="L41" t="n">
-        <v>306.7265692632487</v>
+        <v>569.1287091616648</v>
       </c>
       <c r="M41" t="n">
-        <v>626.1881398735172</v>
+        <v>649.990608248612</v>
       </c>
       <c r="N41" t="n">
-        <v>921.6686276227704</v>
+        <v>963.9181729076257</v>
       </c>
       <c r="O41" t="n">
-        <v>1194.488933838759</v>
+        <v>998.1388076002935</v>
       </c>
       <c r="P41" t="n">
-        <v>1194.488933838759</v>
+        <v>1221.797426496037</v>
       </c>
       <c r="Q41" t="n">
-        <v>1344.273985695033</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="R41" t="n">
-        <v>1389.940927289811</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>363.6373385760257</v>
+        <v>286.760939947252</v>
       </c>
       <c r="C42" t="n">
-        <v>363.6373385760257</v>
+        <v>286.760939947252</v>
       </c>
       <c r="D42" t="n">
-        <v>363.6373385760257</v>
+        <v>286.760939947252</v>
       </c>
       <c r="E42" t="n">
-        <v>190.0741346974401</v>
+        <v>286.760939947252</v>
       </c>
       <c r="F42" t="n">
-        <v>190.0741346974401</v>
+        <v>286.760939947252</v>
       </c>
       <c r="G42" t="n">
-        <v>190.0741346974401</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="H42" t="n">
-        <v>81.07119809400801</v>
+        <v>136.5138647203563</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J42" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988572</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322651</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N42" t="n">
         <v>569.9438436430244</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201586</v>
+        <v>642.2504453451701</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201586</v>
+        <v>491.2511508151321</v>
       </c>
       <c r="T42" t="n">
-        <v>568.1275494439058</v>
+        <v>491.2511508151321</v>
       </c>
       <c r="U42" t="n">
-        <v>568.1275494439058</v>
+        <v>491.2511508151321</v>
       </c>
       <c r="V42" t="n">
-        <v>568.1275494439058</v>
+        <v>491.2511508151321</v>
       </c>
       <c r="W42" t="n">
-        <v>542.1731915029608</v>
+        <v>465.2967928741871</v>
       </c>
       <c r="X42" t="n">
-        <v>542.1731915029608</v>
+        <v>465.2967928741871</v>
       </c>
       <c r="Y42" t="n">
-        <v>542.1731915029608</v>
+        <v>465.2967928741871</v>
       </c>
     </row>
     <row r="43">
@@ -7558,52 +7558,52 @@
         <v>28.06597548400537</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="R43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031934</v>
       </c>
       <c r="S43" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031934</v>
       </c>
       <c r="T43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323072</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931775</v>
       </c>
       <c r="W43" t="n">
         <v>28.06597548400537</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753176</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564252</v>
+        <v>708.1276389564259</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.387850646576</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706563</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660726</v>
+        <v>314.773079666073</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1484294164039</v>
+        <v>135.1484294164038</v>
       </c>
       <c r="H44" t="n">
         <v>28.06597548400537</v>
@@ -7646,31 +7646,31 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400537</v>
+        <v>149.3266338957578</v>
       </c>
       <c r="K44" t="n">
-        <v>28.06597548400537</v>
+        <v>149.3266338957578</v>
       </c>
       <c r="L44" t="n">
-        <v>313.3864894880867</v>
+        <v>434.6471478998392</v>
       </c>
       <c r="M44" t="n">
-        <v>528.8668938972442</v>
+        <v>515.5090469867864</v>
       </c>
       <c r="N44" t="n">
-        <v>842.7944585562577</v>
+        <v>829.4366116458001</v>
       </c>
       <c r="O44" t="n">
-        <v>1115.614764772247</v>
+        <v>1102.256917861789</v>
       </c>
       <c r="P44" t="n">
-        <v>1339.27338366799</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q44" t="n">
-        <v>1339.27338366799</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1384.940325262768</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
         <v>1384.940325262768</v>
@@ -7682,7 +7682,7 @@
         <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181028</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>254.6344019725935</v>
+        <v>616.2960874042251</v>
       </c>
       <c r="C45" t="n">
-        <v>254.6344019725935</v>
+        <v>616.2960874042251</v>
       </c>
       <c r="D45" t="n">
-        <v>254.6344019725935</v>
+        <v>455.5159711652568</v>
       </c>
       <c r="E45" t="n">
-        <v>81.07119809400801</v>
+        <v>281.9527672866712</v>
       </c>
       <c r="F45" t="n">
-        <v>81.07119809400801</v>
+        <v>231.3182733209038</v>
       </c>
       <c r="G45" t="n">
-        <v>81.07119809400801</v>
+        <v>81.071198094008</v>
       </c>
       <c r="H45" t="n">
-        <v>81.07119809400801</v>
+        <v>81.071198094008</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07119809400801</v>
+        <v>81.071198094008</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988572</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322651</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N45" t="n">
         <v>569.9438436430244</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.3310522028241</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="R45" t="n">
-        <v>778.3310522028241</v>
+        <v>642.2504453451701</v>
       </c>
       <c r="S45" t="n">
-        <v>778.3310522028241</v>
+        <v>642.2504453451701</v>
       </c>
       <c r="T45" t="n">
-        <v>561.1887051265713</v>
+        <v>642.2504453451701</v>
       </c>
       <c r="U45" t="n">
-        <v>524.0329712423022</v>
+        <v>642.2504453451701</v>
       </c>
       <c r="V45" t="n">
-        <v>524.0329712423022</v>
+        <v>642.2504453451701</v>
       </c>
       <c r="W45" t="n">
-        <v>254.6344019725935</v>
+        <v>616.2960874042251</v>
       </c>
       <c r="X45" t="n">
-        <v>254.6344019725935</v>
+        <v>616.2960874042251</v>
       </c>
       <c r="Y45" t="n">
-        <v>254.6344019725935</v>
+        <v>616.2960874042251</v>
       </c>
     </row>
     <row r="46">
@@ -7795,52 +7795,52 @@
         <v>28.06597548400537</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400537</v>
+        <v>99.65187982944573</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598923</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606949</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323072</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931775</v>
       </c>
       <c r="W46" t="n">
         <v>28.06597548400537</v>
@@ -8532,7 +8532,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>172.23559297146</v>
@@ -8541,7 +8541,7 @@
         <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
         <v>177.037405250518</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841511</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9483,7 +9483,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566417</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.6995476102102</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>4.832714589321199</v>
+        <v>4.832714589321142</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>36.55305216769847</v>
       </c>
       <c r="G11" t="n">
         <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240826</v>
+        <v>62.86150506240819</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675147</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>59.92308772079681</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>15.63936994613488</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518373</v>
       </c>
       <c r="C14" t="n">
-        <v>55.39698396589861</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>159.6238954891595</v>
@@ -23507,13 +23507,13 @@
         <v>36.55305216769852</v>
       </c>
       <c r="G14" t="n">
-        <v>52.19197549033359</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240826</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>18.4961142779409</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675145</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>142.7315194560842</v>
@@ -23561,7 +23561,7 @@
         <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613493</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1092641.490534973</v>
+        <v>1092641.490534974</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1092641.490534974</v>
+        <v>1092641.490534973</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308676.1983117611</v>
+        <v>308676.1983117608</v>
       </c>
       <c r="C2" t="n">
-        <v>308676.1983117608</v>
+        <v>308676.1983117607</v>
       </c>
       <c r="D2" t="n">
-        <v>308854.4605017026</v>
+        <v>308854.4605017025</v>
       </c>
       <c r="E2" t="n">
-        <v>265907.4000621969</v>
+        <v>265907.4000621971</v>
       </c>
       <c r="F2" t="n">
         <v>265907.4000621969</v>
@@ -26329,13 +26329,13 @@
         <v>309301.4921004876</v>
       </c>
       <c r="H2" t="n">
+        <v>309301.4921004875</v>
+      </c>
+      <c r="I2" t="n">
         <v>309301.4921004876</v>
       </c>
-      <c r="I2" t="n">
-        <v>309301.4921004877</v>
-      </c>
       <c r="J2" t="n">
-        <v>309301.4921004873</v>
+        <v>309301.4921004875</v>
       </c>
       <c r="K2" t="n">
         <v>309301.4921004875</v>
@@ -26353,7 +26353,7 @@
         <v>309301.4921004873</v>
       </c>
       <c r="P2" t="n">
-        <v>309301.4921004873</v>
+        <v>309301.4921004874</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787141</v>
+        <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26436,28 +26436,28 @@
         <v>366826.3686005261</v>
       </c>
       <c r="I4" t="n">
-        <v>366826.3686005261</v>
+        <v>366826.368600526</v>
       </c>
       <c r="J4" t="n">
-        <v>367614.5661588978</v>
+        <v>367614.5661588977</v>
       </c>
       <c r="K4" t="n">
         <v>367614.5661588978</v>
       </c>
       <c r="L4" t="n">
-        <v>367599.7761915192</v>
+        <v>367599.7761915191</v>
       </c>
       <c r="M4" t="n">
         <v>366789.8388182007</v>
       </c>
       <c r="N4" t="n">
-        <v>366789.8388182007</v>
+        <v>366789.8388182006</v>
       </c>
       <c r="O4" t="n">
         <v>367176.9014819184</v>
       </c>
       <c r="P4" t="n">
-        <v>367176.9014819183</v>
+        <v>367176.9014819184</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774778</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
         <v>28642.95693774778</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016351</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="K5" t="n">
         <v>47449.67722016352</v>
@@ -26506,10 +26506,10 @@
         <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887324</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887323</v>
+        <v>43797.12782887324</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134031.5247414542</v>
+        <v>-134035.9911256597</v>
       </c>
       <c r="C6" t="n">
-        <v>-134031.5247414545</v>
+        <v>-134035.9911256597</v>
       </c>
       <c r="D6" t="n">
-        <v>-134879.3863433466</v>
+        <v>-134882.5794261952</v>
       </c>
       <c r="E6" t="n">
-        <v>-338080.1726115691</v>
+        <v>-338390.1304118425</v>
       </c>
       <c r="F6" t="n">
-        <v>-58954.05743285502</v>
+        <v>-59264.01523312847</v>
       </c>
       <c r="G6" t="n">
         <v>-191636.740684996</v>
       </c>
       <c r="H6" t="n">
-        <v>-96197.21526586267</v>
+        <v>-96197.21526586279</v>
       </c>
       <c r="I6" t="n">
-        <v>-96197.21526586261</v>
+        <v>-96197.21526586256</v>
       </c>
       <c r="J6" t="n">
-        <v>-249259.0342854533</v>
+        <v>-249259.034285453</v>
       </c>
       <c r="K6" t="n">
         <v>-105762.7512785738</v>
       </c>
       <c r="L6" t="n">
-        <v>-201724.7249865047</v>
+        <v>-201724.7249865046</v>
       </c>
       <c r="M6" t="n">
         <v>-144599.0086087232</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>178.1482641530678</v>
@@ -26707,7 +26707,7 @@
         <v>297.4476709269845</v>
       </c>
       <c r="J2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K2" t="n">
         <v>213.484750524001</v>
@@ -26722,10 +26722,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="O2" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P2" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="I3" t="n">
         <v>101.1713840758394</v>
@@ -26808,7 +26808,7 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892759</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>337.8964638257669</v>
+        <v>338.0263792789579</v>
       </c>
       <c r="X8" t="n">
         <v>359.7827142947061</v>
@@ -27932,7 +27932,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.3189018843524</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
@@ -27941,19 +27941,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
-        <v>145.7629687550784</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>125.0193178399729</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.83566399273495</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>192.8149753650161</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.6488107764739</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300993</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L11" t="n">
         <v>141.3051631366612</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>12.68449317681754</v>
+        <v>4.31971297202945</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530678</v>
+        <v>15.09197235108876</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
-        <v>91.59727018074921</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>163.5971532020336</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28187,10 +28187,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439874</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757159</v>
+        <v>3.092858000757158</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K13" t="n">
-        <v>178.1482641530678</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530678</v>
+        <v>32.15181624817888</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N13" t="n">
-        <v>83.75585695974488</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O13" t="n">
-        <v>37.4788839977768</v>
+        <v>172.7381925562115</v>
       </c>
       <c r="P13" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28348,10 +28348,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459406</v>
+        <v>116.9728685908574</v>
       </c>
       <c r="K14" t="n">
-        <v>6.727192146300993</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
         <v>141.3051631366612</v>
@@ -28360,16 +28360,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>48.55602983105122</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>15.09197235108876</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742198</v>
+        <v>89.71173703742197</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28409,25 +28409,25 @@
         <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>30.50828160929119</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439874</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890777</v>
@@ -28463,10 +28463,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>52.15098759615509</v>
       </c>
       <c r="W15" t="n">
-        <v>78.20665025776444</v>
+        <v>105.4923165867238</v>
       </c>
       <c r="X15" t="n">
         <v>178.1482641530678</v>
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28500,34 +28500,34 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
+        <v>165.8243976546666</v>
+      </c>
+      <c r="I16" t="n">
+        <v>164.852968067965</v>
+      </c>
+      <c r="J16" t="n">
+        <v>120.239607582909</v>
+      </c>
+      <c r="K16" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="I16" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="J16" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="K16" t="n">
-        <v>67.02998013918999</v>
       </c>
       <c r="L16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889346</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O16" t="n">
-        <v>37.4788839977768</v>
+        <v>138.1770224936523</v>
       </c>
       <c r="P16" t="n">
-        <v>94.17360213499168</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28582,19 +28582,19 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>241.0097692154761</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
         <v>76.78161896459406</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300993</v>
+        <v>162.3626899797159</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,16 +28603,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>104.3449931170832</v>
+        <v>15.09197235108876</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566692</v>
+        <v>89.71173703742197</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8815453823669</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
         <v>297.4476709269845</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>180.6614869333516</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,13 +28658,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161041</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
@@ -28694,7 +28694,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624312</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280694968886</v>
@@ -28703,13 +28703,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.20665025776444</v>
+        <v>115.9509872772644</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477846</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817888</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O19" t="n">
         <v>37.4788839977768</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28770,7 +28770,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S19" t="n">
-        <v>235.4380443661806</v>
+        <v>235.4380443661805</v>
       </c>
       <c r="T19" t="n">
         <v>223.761558450323</v>
@@ -28819,16 +28819,16 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>241.0097692154761</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146300972</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>69.70369005878543</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,25 +28837,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108879</v>
+        <v>203.5899056703359</v>
       </c>
       <c r="Q20" t="n">
-        <v>254.1312884878663</v>
+        <v>89.71173703742197</v>
       </c>
       <c r="R20" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S20" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4658813998193</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269845</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439874</v>
+        <v>36.30090262085174</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161041</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
@@ -28934,7 +28934,7 @@
         <v>26.47299028624312</v>
       </c>
       <c r="U21" t="n">
-        <v>78.06854570345678</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.88635281477846</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817888</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O22" t="n">
         <v>37.4788839977768</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024888</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29007,7 +29007,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S22" t="n">
-        <v>235.4380443661806</v>
+        <v>235.4380443661805</v>
       </c>
       <c r="T22" t="n">
         <v>223.761558450323</v>
@@ -29056,28 +29056,28 @@
         <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0097692154761</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459406</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2251254655482</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>126.1415917702937</v>
       </c>
       <c r="M23" t="n">
-        <v>106.8192473728359</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>57.60030407760847</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9316356498859</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q23" t="n">
         <v>89.71173703742198</v>
@@ -29086,13 +29086,13 @@
         <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4658813998193</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269845</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29159,25 +29159,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>174.0980124227693</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624307</v>
+        <v>123.2130776071567</v>
       </c>
       <c r="U24" t="n">
-        <v>48.7301361776414</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776447</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29220,16 +29220,16 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L25" t="n">
         <v>32.15181624817889</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O25" t="n">
         <v>37.4788839977768</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240014</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>125.786222434098</v>
+        <v>10.16356477049453</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="28">
@@ -29433,13 +29433,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>211.2576485790542</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29448,7 +29448,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>165.8243976546666</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I28" t="n">
         <v>164.852968067965</v>
@@ -29457,19 +29457,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L28" t="n">
         <v>32.15181624817889</v>
       </c>
       <c r="M28" t="n">
-        <v>213.484750524001</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O28" t="n">
-        <v>81.78252893415119</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P28" t="n">
         <v>58.47859890024888</v>
@@ -29481,25 +29481,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.1491094332369</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,16 +29603,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29645,10 +29645,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>97.6675146911619</v>
       </c>
       <c r="W30" t="n">
         <v>213.484750524001</v>
@@ -29682,7 +29682,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7007749271525</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H31" t="n">
         <v>165.8243976546666</v>
@@ -29694,19 +29694,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L31" t="n">
-        <v>213.484750524001</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M31" t="n">
-        <v>27.82367872851735</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O31" t="n">
-        <v>37.4788839977768</v>
+        <v>176.6346560063743</v>
       </c>
       <c r="P31" t="n">
         <v>58.47859890024888</v>
@@ -29770,7 +29770,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407515</v>
       </c>
       <c r="K32" t="n">
         <v>214.3124603908652</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1953356407516</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
         <v>214.3124603908652</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29840,16 +29840,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>30.28613784623813</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
@@ -29879,19 +29879,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>7.680435169901699</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3124603908652</v>
@@ -29907,19 +29907,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D34" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="E34" t="n">
-        <v>214.3124603908652</v>
+        <v>205.7392861417239</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7007749271525</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="H34" t="n">
         <v>165.8243976546666</v>
@@ -29931,16 +29931,16 @@
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L34" t="n">
         <v>32.15181624817889</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O34" t="n">
         <v>37.4788839977768</v>
@@ -29949,7 +29949,7 @@
         <v>58.47859890024888</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.1107765971535</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
         <v>203.4299611556341</v>
@@ -30004,43 +30004,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0097692154761</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
+        <v>76.78161896459406</v>
+      </c>
+      <c r="K35" t="n">
+        <v>267.1880015163297</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>225.8945117006674</v>
+      </c>
+      <c r="P35" t="n">
+        <v>15.09197235108877</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>248.055963279201</v>
+      </c>
+      <c r="R35" t="n">
+        <v>194.8815453823669</v>
+      </c>
+      <c r="S35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="K35" t="n">
-        <v>6.727192146300993</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>36.47615389973296</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>225.8945117006675</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="T35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="Q35" t="n">
-        <v>89.71173703742198</v>
-      </c>
-      <c r="R35" t="n">
+      <c r="U35" t="n">
         <v>272.0591682562687</v>
-      </c>
-      <c r="S35" t="n">
-        <v>227.5169945584482</v>
-      </c>
-      <c r="T35" t="n">
-        <v>222.4658813998193</v>
-      </c>
-      <c r="U35" t="n">
-        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>89.21821430953128</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,25 +30107,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>131.2507455995611</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>213.1734225988151</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30168,16 +30168,16 @@
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L37" t="n">
         <v>32.15181624817889</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O37" t="n">
         <v>37.4788839977768</v>
@@ -30186,7 +30186,7 @@
         <v>58.47859890024888</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.7734878975363</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R37" t="n">
         <v>203.4299611556341</v>
@@ -30247,7 +30247,7 @@
         <v>76.78161896459406</v>
       </c>
       <c r="K38" t="n">
-        <v>113.2960357426461</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,16 +30259,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8945117006675</v>
+        <v>225.8945117006674</v>
       </c>
       <c r="P38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742198</v>
+        <v>251.5495767440498</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
         <v>272.0591682562687</v>
@@ -30277,7 +30277,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30305,7 +30305,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30323,7 +30323,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.650289881226224</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
@@ -30356,19 +30356,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>124.477938926767</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30405,22 +30405,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L40" t="n">
         <v>32.15181624817889</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O40" t="n">
         <v>37.4788839977768</v>
       </c>
       <c r="P40" t="n">
-        <v>94.03510083409593</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30429,7 +30429,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4380443661806</v>
+        <v>270.9945463000277</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="C41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="D41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="E41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="F41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="G41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="I41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78161896459406</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="K41" t="n">
-        <v>241.009769215476</v>
+        <v>100.8245163131745</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="M41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>222.376358195516</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="O41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>15.09197235108879</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4658813998193</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="42">
@@ -30545,22 +30545,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>17.82261734837633</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>42.10148973526674</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
@@ -30599,7 +30599,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30630,7 +30630,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7007749271525</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H43" t="n">
         <v>165.8243976546666</v>
@@ -30642,19 +30642,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L43" t="n">
         <v>32.15181624817889</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5775184186754</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024888</v>
@@ -30663,22 +30663,22 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>216.971390523056</v>
       </c>
       <c r="S43" t="n">
         <v>235.4380443661806</v>
       </c>
       <c r="T43" t="n">
-        <v>223.761558450323</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W43" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="C44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="D44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="E44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="F44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="G44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="I44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459406</v>
+        <v>199.2671325118187</v>
       </c>
       <c r="K44" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="M44" t="n">
-        <v>135.9782882042527</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Q44" t="n">
         <v>89.71173703742198</v>
       </c>
       <c r="R44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5169945584482</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="U44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
     </row>
     <row r="45">
@@ -30779,16 +30779,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>108.6952900938186</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7355245857741</v>
@@ -30821,22 +30821,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>200.4438929514622</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30867,7 +30867,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.7007749271525</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="H46" t="n">
         <v>165.8243976546666</v>
@@ -30879,19 +30879,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L46" t="n">
         <v>32.15181624817889</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O46" t="n">
-        <v>140.5775184186754</v>
+        <v>62.69679928105622</v>
       </c>
       <c r="P46" t="n">
         <v>58.47859890024888</v>
@@ -30903,19 +30903,19 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661806</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U46" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="V46" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="W46" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631734</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217851</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J11" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645942</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727854</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032862</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401899</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P11" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178817</v>
       </c>
       <c r="R11" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610822</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H12" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729621</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K12" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447578</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134022</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862169</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971361</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375087</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014377</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542652</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.779517221567943</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590776</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631734</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217851</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J14" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645942</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727854</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032862</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401899</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P14" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178817</v>
       </c>
       <c r="R14" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610822</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H15" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729621</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K15" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447578</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134022</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862169</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971361</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375087</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014377</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N16" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542652</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.779517221567943</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590776</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631734</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217851</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J17" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645942</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727854</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032862</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401899</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P17" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178817</v>
       </c>
       <c r="R17" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610822</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H18" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729621</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K18" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447578</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134022</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862169</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971361</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375087</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014377</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N19" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542652</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.779517221567943</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590776</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631734</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217851</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J20" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645942</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727854</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032862</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401899</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P20" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178817</v>
       </c>
       <c r="R20" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610822</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H21" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729621</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K21" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447578</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134022</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862169</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971361</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375087</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014377</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602956</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N22" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542652</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.779517221567943</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590776</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P23" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R23" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H24" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K24" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375087</v>
@@ -32859,10 +32859,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602956</v>
@@ -32874,31 +32874,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N25" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J26" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P26" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R26" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H27" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K27" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375087</v>
@@ -33096,10 +33096,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602956</v>
@@ -33111,31 +33111,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N28" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P29" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R29" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H30" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K30" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q30" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375087</v>
@@ -33333,10 +33333,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602956</v>
@@ -33348,31 +33348,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N31" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J32" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P32" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R32" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H33" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K33" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375087</v>
@@ -33570,10 +33570,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602956</v>
@@ -33585,31 +33585,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N34" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J35" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P35" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R35" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H36" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K36" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375087</v>
@@ -33807,10 +33807,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602956</v>
@@ -33822,31 +33822,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N37" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J38" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P38" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R38" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H39" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K39" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375087</v>
@@ -34044,10 +34044,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602956</v>
@@ -34059,31 +34059,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N40" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J41" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R41" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H42" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K42" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375087</v>
@@ -34281,10 +34281,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602956</v>
@@ -34296,31 +34296,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N43" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217849</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J44" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246053</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032859</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P44" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R44" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T44" t="n">
         <v>1.780413000168792</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H45" t="n">
         <v>2.101692337122627</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729618</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K45" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795501</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375087</v>
@@ -34518,10 +34518,10 @@
         <v>0.1824402007924973</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602956</v>
@@ -34533,31 +34533,31 @@
         <v>27.12388221600456</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N46" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q46" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542648</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35209,7 +35209,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>3.199249640013477</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="O9" t="n">
         <v>3.069987028295762</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>171.4210720067669</v>
       </c>
       <c r="L11" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641138</v>
       </c>
       <c r="N11" t="n">
-        <v>88.77327412196131</v>
+        <v>80.40849391717325</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P11" t="n">
-        <v>163.056291801979</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564582</v>
+        <v>88.43652711564589</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543472</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35501,10 +35501,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,46 +35541,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5313434880997647</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109545</v>
+        <v>11.69108318109551</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235715</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084287</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462121</v>
       </c>
       <c r="G13" t="n">
-        <v>9.447489225915332</v>
+        <v>9.447489225915389</v>
       </c>
       <c r="H13" t="n">
-        <v>12.32386649840122</v>
+        <v>12.32386649840128</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510282</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.9086565701589</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138778</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9964479048889</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>67.23569959046353</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>135.2593085584347</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>40.19124962626333</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641138</v>
       </c>
       <c r="N14" t="n">
-        <v>124.644810776195</v>
+        <v>76.0887809451438</v>
       </c>
       <c r="O14" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="P14" t="n">
-        <v>163.056291801979</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543472</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35738,10 +35738,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235709</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35796,34 +35796,34 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840122</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510276</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015884</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
         <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837864</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>100.6981384958755</v>
       </c>
       <c r="P16" t="n">
-        <v>35.6950032347428</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937857</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,37 +35878,37 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.43790171150842</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>155.6354978334149</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258597</v>
       </c>
       <c r="M17" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641138</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514377</v>
+        <v>76.0887809451438</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P17" t="n">
-        <v>89.25302076599439</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T17" t="n">
         <v>74.98178952716522</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543487</v>
+        <v>38.34679395543472</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35975,10 +35975,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.43790171150842</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>116.8964602413714</v>
+      </c>
+      <c r="M20" t="n">
+        <v>81.67868594641138</v>
+      </c>
+      <c r="N20" t="n">
+        <v>76.0887809451438</v>
+      </c>
+      <c r="O20" t="n">
+        <v>34.56629766936135</v>
+      </c>
+      <c r="P20" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>47.19277018258595</v>
-      </c>
-      <c r="M20" t="n">
-        <v>81.67868594641135</v>
-      </c>
-      <c r="N20" t="n">
-        <v>76.08878094514377</v>
-      </c>
-      <c r="O20" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>164.4195514504443</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543472</v>
       </c>
       <c r="L21" t="n">
-        <v>118.518100129671</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
         <v>183.5117642464701</v>
@@ -36212,10 +36212,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="K23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258595</v>
+        <v>173.3343619528797</v>
       </c>
       <c r="M23" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N23" t="n">
-        <v>133.6890850227522</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O23" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704127</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933623</v>
@@ -36613,10 +36613,10 @@
         <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,13 +36729,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.02756955202858</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.30210027329022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>69.5815073668292</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.66035286933435</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.2678851251075</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>44.30364493637438</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
         <v>289.5735314691448</v>
@@ -36923,10 +36923,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.78397559684852</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2.606813329623894</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>139.1557720085975</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>117.4137166761574</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445642</v>
@@ -37075,7 +37075,7 @@
         <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372765</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
@@ -37087,7 +37087,7 @@
         <v>199.2204880397764</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4835986033296</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
         <v>19.43091500849835</v>
@@ -37160,10 +37160,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,19 +37203,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.85527941889285</v>
       </c>
       <c r="D34" t="n">
         <v>69.12981014015449</v>
       </c>
       <c r="E34" t="n">
-        <v>72.63631917864021</v>
+        <v>64.0631449294989</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.61168546371273</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.89379063346428</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.04939904079267</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M35" t="n">
-        <v>118.1548398461443</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O35" t="n">
         <v>260.4608093700288</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>158.344226241779</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390187</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079266</v>
+        <v>31.04939904079267</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>106.5688435963451</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258595</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O38" t="n">
         <v>260.4608093700288</v>
@@ -37561,10 +37561,10 @@
         <v>256.9671959051799</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>161.8378397066278</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390187</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>44.54217369782054</v>
@@ -37573,7 +37573,7 @@
         <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37716,16 +37716,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.282577069175</v>
+        <v>94.09732416687351</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258595</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N41" t="n">
-        <v>298.4651391406597</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848374</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310919</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702789</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.54388781565682</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.3089942883236</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.54142936742186</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.24821076515306</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>122.4855135472247</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,28 +38023,28 @@
         <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>217.6569741506641</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606198</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
         <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643872</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310919</v>
+        <v>46.12822383310922</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49277465702789</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565682</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.3089942883236</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>103.0986344208986</v>
+        <v>25.21791528327941</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295506</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
